--- a/ARCHERY SHEETS/RecordsOfficer.xlsx
+++ b/ARCHERY SHEETS/RecordsOfficer.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9416B2BA-C1F1-41B7-9B8B-55976D7B7DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB882F9-D701-4DA9-A926-C941EF8F12C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{8890BA39-058F-4FBA-BC6F-6FC76E6F24A3}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{8890BA39-058F-4FBA-BC6F-6FC76E6F24A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Record Cards" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Archers" sheetId="3" r:id="rId2"/>
+    <sheet name="Awards" sheetId="4" r:id="rId3"/>
+    <sheet name="Data" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Archers!$B$1:$B$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Record Cards'!$B$1:$B$34</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="120">
   <si>
     <t>Card Number</t>
   </si>
@@ -72,18 +78,9 @@
     <t>Round Handicap</t>
   </si>
   <si>
-    <t>Archer Handicap</t>
-  </si>
-  <si>
     <t>Round Classification</t>
   </si>
   <si>
-    <t>Archer Classification</t>
-  </si>
-  <si>
-    <t>Badge Given?</t>
-  </si>
-  <si>
     <t>Target Day / Competition?</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>WA 50m (80cm)</t>
   </si>
   <si>
-    <t>Redruth Spring Day 2</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -198,16 +192,217 @@
     <t>Long Warwick</t>
   </si>
   <si>
-    <t>BUCS Outdoors Day 1</t>
-  </si>
-  <si>
-    <t>BUCS Outdoors Day 2</t>
-  </si>
-  <si>
     <t>Warwick 50</t>
   </si>
   <si>
     <t>Club Target Day</t>
+  </si>
+  <si>
+    <t>Cum. Dozens</t>
+  </si>
+  <si>
+    <t>Redruth Spring Day 2 WRS</t>
+  </si>
+  <si>
+    <t>BUCS Outdoors Day 1 WRS</t>
+  </si>
+  <si>
+    <t>BUCS Outdoors Day 2 WRS</t>
+  </si>
+  <si>
+    <t>Bowstyle</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>EMB</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>Bowmen</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>IB2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Sex (as per AGB)</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>252 Scheme</t>
+  </si>
+  <si>
+    <t>Indoor Progress</t>
+  </si>
+  <si>
+    <t>Outdoor Progress</t>
+  </si>
+  <si>
+    <t>60yds</t>
+  </si>
+  <si>
+    <t>Worcester Badge</t>
+  </si>
+  <si>
+    <t>Short Metric I</t>
+  </si>
+  <si>
+    <t>Previous Year</t>
+  </si>
+  <si>
+    <t>Handicap</t>
+  </si>
+  <si>
+    <t>Indoor 23/24</t>
+  </si>
+  <si>
+    <t>Indoor  23/24</t>
+  </si>
+  <si>
+    <t>Outdoor 24</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Worcester</t>
+  </si>
+  <si>
+    <t>Frostbite</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Rose Award</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>WA Target Award</t>
+  </si>
+  <si>
+    <t>WA 70m</t>
+  </si>
+  <si>
+    <t>WA 18m</t>
+  </si>
+  <si>
+    <t>WA 50m Compound</t>
+  </si>
+  <si>
+    <t>WA 50m Barebow</t>
+  </si>
+  <si>
+    <t>WA 18m Barebow</t>
+  </si>
+  <si>
+    <t>WA Star Award</t>
+  </si>
+  <si>
+    <t>Current Classification</t>
+  </si>
+  <si>
+    <t>Indoor 24/25</t>
+  </si>
+  <si>
+    <t>Outdoor 25</t>
+  </si>
+  <si>
+    <t>Indoor  24/25</t>
+  </si>
+  <si>
+    <t>DCAS Rose Award</t>
+  </si>
+  <si>
+    <t>DCAS Star Award</t>
+  </si>
+  <si>
+    <t>Archer Indoor Handicap</t>
+  </si>
+  <si>
+    <t>Archer Outdoor Handicap</t>
+  </si>
+  <si>
+    <t>Archer Indoor Classification</t>
+  </si>
+  <si>
+    <t>Archer Outdoor Classification</t>
+  </si>
+  <si>
+    <t>Indoor Bowmen 2nd Class</t>
+  </si>
+  <si>
+    <t>Estab.</t>
+  </si>
+  <si>
+    <t>IB2 reconfirmed from previous season</t>
+  </si>
+  <si>
+    <t>Cl. Badge Given?</t>
+  </si>
+  <si>
+    <t>Indoors</t>
+  </si>
+  <si>
+    <t>Outdoors</t>
+  </si>
+  <si>
+    <t>Classification Badge Given</t>
   </si>
 </sst>
 </file>
@@ -239,7 +434,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -307,11 +502,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -319,15 +560,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -340,26 +578,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5555"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -367,6 +753,79 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8888"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8888"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8888"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -382,6 +841,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -390,8 +859,41 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5555"/>
+      <color rgb="FFFF3333"/>
+      <color rgb="FFFF2222"/>
+      <color rgb="FFFF8888"/>
+      <color rgb="FF00B0F0"/>
+      <color rgb="FFFF4444"/>
+      <color rgb="FFC6EFCE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -720,35 +1222,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691D78A0-81DF-4069-A44A-309292B605EE}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="10" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" style="4" customWidth="1"/>
-    <col min="6" max="9" width="8.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="3" customWidth="1"/>
+    <col min="6" max="10" width="8.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="4" customWidth="1"/>
+    <col min="12" max="13" width="14.28515625" style="3" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="118.85546875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="5"/>
+    <col min="15" max="16" width="15.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="28.5703125" style="26" customWidth="1"/>
+    <col min="19" max="19" width="28.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="28.5703125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="121.42578125" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,495 +1265,732 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45416</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>784</v>
+      </c>
+      <c r="I2" s="3">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3">
+        <v>60</v>
+      </c>
+      <c r="K2" s="4">
+        <v>90</v>
+      </c>
+      <c r="O2" s="3">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45431</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>552</v>
+      </c>
+      <c r="I3" s="3">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="J3" s="3">
+        <v>25</v>
+      </c>
+      <c r="K3" s="4">
+        <v>71</v>
+      </c>
+      <c r="O3" s="3">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45431</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>555</v>
+      </c>
+      <c r="I4" s="3">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="6">
-        <v>45416</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="J4" s="3">
+        <v>27</v>
+      </c>
+      <c r="K4" s="4">
+        <v>69</v>
+      </c>
+      <c r="O4" s="3">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>37</v>
+      </c>
+      <c r="R4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="T4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45436</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>362</v>
+      </c>
+      <c r="J5" s="3">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4">
+        <v>48</v>
+      </c>
+      <c r="O5" s="3">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>37</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45451</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="F2" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="G2" s="5">
-        <v>784</v>
-      </c>
-      <c r="H2" s="5">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5">
-        <v>60</v>
-      </c>
-      <c r="J2" s="4">
-        <v>90</v>
-      </c>
-      <c r="M2" s="3">
-        <v>36</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="6">
-        <v>45431</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="5">
-        <v>6</v>
-      </c>
-      <c r="G3" s="5">
-        <v>552</v>
-      </c>
-      <c r="H3" s="5">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5">
-        <v>25</v>
-      </c>
-      <c r="J3" s="4">
-        <v>71</v>
-      </c>
-      <c r="M3" s="3">
-        <v>37</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="6">
-        <v>45431</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="5">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5">
-        <v>555</v>
-      </c>
-      <c r="H4" s="5">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5">
-        <v>27</v>
-      </c>
-      <c r="J4" s="4">
-        <v>69</v>
-      </c>
-      <c r="M4" s="3">
-        <v>37</v>
-      </c>
-      <c r="N4" s="4">
-        <v>37</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="6">
-        <v>45436</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5">
-        <v>362</v>
-      </c>
-      <c r="I5" s="5">
-        <v>21</v>
-      </c>
-      <c r="J5" s="4">
-        <v>48</v>
-      </c>
-      <c r="M5" s="3">
-        <v>36</v>
-      </c>
-      <c r="N5" s="4">
-        <v>37</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="6">
-        <v>45451</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>6</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="3">
         <v>554</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="3">
         <v>7</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="3">
         <v>32</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>68</v>
       </c>
-      <c r="M6" s="3">
+      <c r="O6" s="3">
         <v>37</v>
       </c>
-      <c r="N6" s="4">
+      <c r="Q6" s="4">
         <v>37</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="6">
+      <c r="R6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
         <v>45452</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>44</v>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>7.5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="3">
         <v>789</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="3">
         <v>22</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="3">
         <v>66</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>90</v>
       </c>
-      <c r="M7" s="3">
+      <c r="O7" s="3">
         <v>36</v>
       </c>
-      <c r="N7" s="4">
+      <c r="Q7" s="4">
         <v>36</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="6">
+      <c r="R7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
         <v>45489</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3">
         <v>4</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="3">
         <v>420</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="3">
         <v>42</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>48</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>31</v>
       </c>
-      <c r="N8" s="4">
+      <c r="Q8" s="4">
         <v>35</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="6">
+      <c r="R8" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
         <v>45501</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="5">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
         <v>6</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="3">
         <v>545</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="3">
         <v>8</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="3">
         <v>28</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>68</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>38</v>
       </c>
-      <c r="N9" s="4">
+      <c r="Q9" s="4">
         <v>35</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C10" s="6">
+      <c r="R9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5">
         <v>45503</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="3">
         <v>6</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="3">
         <v>573</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="3">
         <v>11</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="3">
         <v>32</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>71</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>34</v>
       </c>
-      <c r="N10" s="4">
+      <c r="Q10" s="4">
         <v>34</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="R10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45508</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3">
+        <v>541</v>
+      </c>
+      <c r="I11" s="3">
+        <v>6</v>
+      </c>
+      <c r="J11" s="3">
+        <v>24</v>
+      </c>
+      <c r="K11" s="4">
+        <v>70</v>
+      </c>
+      <c r="O11" s="3">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>34</v>
+      </c>
+      <c r="R11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45515</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>618</v>
+      </c>
+      <c r="I12" s="3">
+        <v>22</v>
+      </c>
+      <c r="J12" s="3">
+        <v>49</v>
+      </c>
+      <c r="K12" s="4">
+        <v>70</v>
+      </c>
+      <c r="O12" s="3">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>33</v>
+      </c>
+      <c r="R12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45517</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>558</v>
+      </c>
+      <c r="I13" s="3">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3">
+        <v>59</v>
+      </c>
+      <c r="K13" s="4">
+        <v>60</v>
+      </c>
+      <c r="L13" s="3">
+        <v>550</v>
+      </c>
+      <c r="O13" s="3">
+        <v>29</v>
+      </c>
+      <c r="P13" s="3">
+        <v>27</v>
+      </c>
+      <c r="R13" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P14" s="9"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="29"/>
+    </row>
+    <row r="15" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="E12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="R12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="E15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="4"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>18</v>
       </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <autoFilter ref="B1:B34" xr:uid="{691D78A0-81DF-4069-A44A-309292B605EE}"/>
+  <conditionalFormatting sqref="E2:E1048576">
+    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="WRS">
+      <formula>NOT(ISERROR(SEARCH("WRS",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="12" operator="containsText" text="UKRS">
+      <formula>NOT(ISERROR(SEARCH("UKRS",E2)))</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="21" priority="19">
+      <formula>LEN(TRIM(E2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G1048576">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="greaterThanOrEqual">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:N1048576">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:L1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:T12 R13:S13 R14:T1048576">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Master">
+      <formula>NOT(ISERROR(SEARCH("Master",R2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Bowmen">
+      <formula>NOT(ISERROR(SEARCH("Bowmen",R2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Archer">
+      <formula>NOT(ISERROR(SEARCH("Archer",R2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1259,111 +1999,1786 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCB174E-0B50-48CA-87C2-B3105E50D3D9}">
+  <dimension ref="A1:AL24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="2" max="2" width="22.85546875" style="16" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="17" customWidth="1"/>
+    <col min="6" max="8" width="13.7109375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="17" customWidth="1"/>
+    <col min="10" max="16" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="13.7109375" style="16" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" style="17" customWidth="1"/>
+    <col min="31" max="32" width="13.7109375" style="45" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" style="16" customWidth="1"/>
+    <col min="34" max="34" width="13.7109375" style="21" customWidth="1"/>
+    <col min="35" max="38" width="13.7109375" style="16" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ1" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+    </row>
+    <row r="3" spans="1:38" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="16">
+        <v>27</v>
+      </c>
+      <c r="I4" s="17">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="16">
+        <v>27</v>
+      </c>
+      <c r="AE4" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>550</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>300</v>
+      </c>
+      <c r="AK4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="23"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B24" xr:uid="{5FCB174E-0B50-48CA-87C2-B3105E50D3D9}"/>
+  <mergeCells count="26">
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AE1:AF2"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="R1:Z1"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F4:G1048576">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AF1048576">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",AA4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH1 AH4:AH1048576">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK1:AL1048576">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="100">
+      <formula>NOT(ISERROR(SEARCH("100",AK1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="80">
+      <formula>NOT(ISERROR(SEARCH("80",AK1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="60">
+      <formula>NOT(ISERROR(SEARCH("60",AK1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="50">
+      <formula>NOT(ISERROR(SEARCH("50",AK1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="40">
+      <formula>NOT(ISERROR(SEARCH("40",AK1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="30">
+      <formula>NOT(ISERROR(SEARCH("30",AK1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="20">
+      <formula>NOT(ISERROR(SEARCH("20",AK1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336A1A1B-2BAB-48B4-8EDB-3C6EABCD9C29}">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="33"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>300</v>
+      </c>
+      <c r="B2" s="17">
+        <v>500</v>
+      </c>
+      <c r="C2" s="18">
+        <v>100</v>
+      </c>
+      <c r="D2" s="17">
+        <v>250</v>
+      </c>
+      <c r="E2" s="18">
+        <v>100</v>
+      </c>
+      <c r="F2" s="17">
+        <v>300</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>325</v>
+      </c>
+      <c r="B3" s="17">
+        <v>525</v>
+      </c>
+      <c r="C3" s="18">
+        <v>125</v>
+      </c>
+      <c r="D3" s="17">
+        <v>265</v>
+      </c>
+      <c r="E3" s="18">
+        <v>150</v>
+      </c>
+      <c r="F3" s="17">
+        <v>315</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="16">
+        <v>314</v>
+      </c>
+      <c r="I3" s="16">
+        <v>290</v>
+      </c>
+      <c r="J3" s="16">
+        <v>250</v>
+      </c>
+      <c r="K3" s="17">
+        <v>210</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="16">
+        <v>60</v>
+      </c>
+      <c r="N3" s="16">
+        <v>266</v>
+      </c>
+      <c r="O3" s="16">
+        <v>208</v>
+      </c>
+      <c r="P3" s="16">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>74</v>
+      </c>
+      <c r="R3" s="16">
+        <v>20</v>
+      </c>
+      <c r="S3" s="16">
+        <v>280</v>
+      </c>
+      <c r="T3" s="16">
+        <v>252</v>
+      </c>
+      <c r="U3" s="16">
+        <v>189</v>
+      </c>
+      <c r="V3" s="17">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>350</v>
+      </c>
+      <c r="B4" s="17">
+        <v>550</v>
+      </c>
+      <c r="C4" s="18">
+        <v>150</v>
+      </c>
+      <c r="D4" s="17">
+        <v>275</v>
+      </c>
+      <c r="E4" s="18">
+        <v>200</v>
+      </c>
+      <c r="F4" s="17">
+        <v>330</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="16">
+        <v>306</v>
+      </c>
+      <c r="I4" s="16">
+        <v>280</v>
+      </c>
+      <c r="J4" s="16">
+        <v>234</v>
+      </c>
+      <c r="K4" s="17">
+        <v>196</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="16">
+        <v>50</v>
+      </c>
+      <c r="N4" s="16">
+        <v>270</v>
+      </c>
+      <c r="O4" s="16">
+        <v>222</v>
+      </c>
+      <c r="P4" s="16">
+        <v>148</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>98</v>
+      </c>
+      <c r="R4" s="16">
+        <v>30</v>
+      </c>
+      <c r="S4" s="16">
+        <v>280</v>
+      </c>
+      <c r="T4" s="16">
+        <v>252</v>
+      </c>
+      <c r="U4" s="16">
+        <v>189</v>
+      </c>
+      <c r="V4" s="17">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>375</v>
+      </c>
+      <c r="B5" s="17">
+        <v>575</v>
+      </c>
+      <c r="C5" s="18">
+        <v>175</v>
+      </c>
+      <c r="D5" s="17">
+        <v>285</v>
+      </c>
+      <c r="E5" s="18">
+        <v>225</v>
+      </c>
+      <c r="F5" s="17">
+        <v>340</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="16">
+        <v>294</v>
+      </c>
+      <c r="I5" s="16">
+        <v>264</v>
+      </c>
+      <c r="J5" s="16">
+        <v>216</v>
+      </c>
+      <c r="K5" s="17">
+        <v>176</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="16">
+        <v>40</v>
+      </c>
+      <c r="N5" s="16">
+        <v>274</v>
+      </c>
+      <c r="O5" s="16">
+        <v>236</v>
+      </c>
+      <c r="P5" s="16">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>126</v>
+      </c>
+      <c r="R5" s="16">
+        <v>40</v>
+      </c>
+      <c r="S5" s="16">
+        <v>280</v>
+      </c>
+      <c r="T5" s="16">
+        <v>252</v>
+      </c>
+      <c r="U5" s="16">
+        <v>189</v>
+      </c>
+      <c r="V5" s="17">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>400</v>
+      </c>
+      <c r="B6" s="17">
+        <v>580</v>
+      </c>
+      <c r="C6" s="18">
+        <v>200</v>
+      </c>
+      <c r="D6" s="17">
+        <v>295</v>
+      </c>
+      <c r="E6" s="18">
+        <v>250</v>
+      </c>
+      <c r="F6" s="17">
+        <v>350</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="16">
+        <v>280</v>
+      </c>
+      <c r="I6" s="16">
+        <v>250</v>
+      </c>
+      <c r="J6" s="16">
+        <v>196</v>
+      </c>
+      <c r="K6" s="17">
+        <v>160</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="16">
+        <v>30</v>
+      </c>
+      <c r="N6" s="16">
+        <v>286</v>
+      </c>
+      <c r="O6" s="16">
+        <v>256</v>
+      </c>
+      <c r="P6" s="16">
+        <v>214</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>176</v>
+      </c>
+      <c r="R6" s="16">
+        <v>50</v>
+      </c>
+      <c r="S6" s="16">
+        <v>280</v>
+      </c>
+      <c r="T6" s="16">
+        <v>252</v>
+      </c>
+      <c r="U6" s="16">
+        <v>189</v>
+      </c>
+      <c r="V6" s="17">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>425</v>
+      </c>
+      <c r="B7" s="17">
+        <v>585</v>
+      </c>
+      <c r="C7" s="18">
+        <v>225</v>
+      </c>
+      <c r="D7" s="17">
+        <v>300</v>
+      </c>
+      <c r="E7" s="18">
+        <v>275</v>
+      </c>
+      <c r="F7" s="17">
+        <v>355</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="16">
+        <v>266</v>
+      </c>
+      <c r="I7" s="16">
+        <v>228</v>
+      </c>
+      <c r="J7" s="16">
+        <v>176</v>
+      </c>
+      <c r="K7" s="17">
+        <v>138</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="16">
+        <v>20</v>
+      </c>
+      <c r="N7" s="16">
+        <v>304</v>
+      </c>
+      <c r="O7" s="16">
+        <v>284</v>
+      </c>
+      <c r="P7" s="16">
+        <v>258</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>234</v>
+      </c>
+      <c r="R7" s="16">
+        <v>60</v>
+      </c>
+      <c r="S7" s="16">
+        <v>280</v>
+      </c>
+      <c r="T7" s="16">
+        <v>252</v>
+      </c>
+      <c r="U7" s="16">
+        <v>189</v>
+      </c>
+      <c r="V7" s="17">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>450</v>
+      </c>
+      <c r="B8" s="17">
+        <v>590</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16">
+        <v>80</v>
+      </c>
+      <c r="S8" s="16">
+        <v>280</v>
+      </c>
+      <c r="T8" s="16">
+        <v>252</v>
+      </c>
+      <c r="U8" s="16">
+        <v>164</v>
+      </c>
+      <c r="V8" s="17">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>475</v>
+      </c>
+      <c r="B9" s="17">
+        <v>595</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="16">
+        <v>100</v>
+      </c>
+      <c r="S9" s="16">
+        <v>280</v>
+      </c>
+      <c r="T9" s="16">
+        <v>252</v>
+      </c>
+      <c r="U9" s="16">
+        <v>139</v>
+      </c>
+      <c r="V9" s="17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="V10" s="20"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="39"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="16">
+        <v>800</v>
+      </c>
+      <c r="C13" s="16">
+        <v>900</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1100</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1200</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1250</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="44"/>
+      <c r="J13" s="16">
+        <v>500</v>
+      </c>
+      <c r="K13" s="16">
+        <v>550</v>
+      </c>
+      <c r="L13" s="16">
+        <v>600</v>
+      </c>
+      <c r="M13" s="16">
+        <v>650</v>
+      </c>
+      <c r="N13" s="16">
+        <v>675</v>
+      </c>
+      <c r="O13" s="17">
+        <v>700</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>1000</v>
+      </c>
+      <c r="R13" s="16">
+        <v>1100</v>
+      </c>
+      <c r="S13" s="16">
+        <v>1200</v>
+      </c>
+      <c r="T13" s="16">
+        <v>1300</v>
+      </c>
+      <c r="U13" s="16">
+        <v>1350</v>
+      </c>
+      <c r="V13" s="17">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="16">
+        <v>800</v>
+      </c>
+      <c r="C14" s="16">
+        <v>900</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1200</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1250</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="44"/>
+      <c r="J14" s="16">
+        <v>500</v>
+      </c>
+      <c r="K14" s="16">
+        <v>550</v>
+      </c>
+      <c r="L14" s="16">
+        <v>600</v>
+      </c>
+      <c r="M14" s="16">
+        <v>650</v>
+      </c>
+      <c r="N14" s="16">
+        <v>675</v>
+      </c>
+      <c r="O14" s="17">
+        <v>700</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>1000</v>
+      </c>
+      <c r="R14" s="16">
+        <v>1100</v>
+      </c>
+      <c r="S14" s="16">
+        <v>1200</v>
+      </c>
+      <c r="T14" s="16">
+        <v>1300</v>
+      </c>
+      <c r="U14" s="16">
+        <v>1350</v>
+      </c>
+      <c r="V14" s="17">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="16">
+        <v>500</v>
+      </c>
+      <c r="C15" s="16">
+        <v>600</v>
+      </c>
+      <c r="D15" s="16">
+        <v>700</v>
+      </c>
+      <c r="E15" s="16">
+        <v>800</v>
+      </c>
+      <c r="F15" s="16">
+        <v>900</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="44"/>
+      <c r="J15" s="16">
+        <v>480</v>
+      </c>
+      <c r="K15" s="16">
+        <v>500</v>
+      </c>
+      <c r="L15" s="16">
+        <v>550</v>
+      </c>
+      <c r="M15" s="16">
+        <v>600</v>
+      </c>
+      <c r="N15" s="16">
+        <v>625</v>
+      </c>
+      <c r="O15" s="17">
+        <v>640</v>
+      </c>
+      <c r="V15" s="17"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="16">
+        <v>225</v>
+      </c>
+      <c r="C16" s="16">
+        <v>300</v>
+      </c>
+      <c r="D16" s="16">
+        <v>375</v>
+      </c>
+      <c r="E16" s="16">
+        <v>450</v>
+      </c>
+      <c r="F16" s="16">
+        <v>525</v>
+      </c>
+      <c r="G16" s="17">
+        <v>600</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="44"/>
+      <c r="J16" s="16">
+        <v>750</v>
+      </c>
+      <c r="K16" s="16">
+        <v>800</v>
+      </c>
+      <c r="L16" s="16">
+        <v>830</v>
+      </c>
+      <c r="M16" s="16">
+        <v>860</v>
+      </c>
+      <c r="N16" s="16">
+        <v>875</v>
+      </c>
+      <c r="O16" s="17">
+        <v>890</v>
+      </c>
+      <c r="V16" s="17"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H17" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="44"/>
+      <c r="J17" s="16">
+        <v>500</v>
+      </c>
+      <c r="K17" s="16">
+        <v>525</v>
+      </c>
+      <c r="L17" s="16">
+        <v>550</v>
+      </c>
+      <c r="M17" s="16">
+        <v>575</v>
+      </c>
+      <c r="N17" s="16">
+        <v>585</v>
+      </c>
+      <c r="O17" s="17">
+        <v>595</v>
+      </c>
+      <c r="V17" s="17"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="17"/>
+      <c r="H18" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="16">
+        <v>480</v>
+      </c>
+      <c r="K18" s="16">
+        <v>500</v>
+      </c>
+      <c r="L18" s="16">
+        <v>520</v>
+      </c>
+      <c r="M18" s="16">
+        <v>540</v>
+      </c>
+      <c r="N18" s="16">
+        <v>550</v>
+      </c>
+      <c r="O18" s="17">
+        <v>560</v>
+      </c>
+      <c r="V18" s="17"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="39"/>
+      <c r="P19" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="39"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="O20" s="17"/>
+      <c r="P20" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="16">
+        <v>700</v>
+      </c>
+      <c r="C21" s="16">
+        <v>800</v>
+      </c>
+      <c r="D21" s="16">
+        <v>900</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1100</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1200</v>
+      </c>
+      <c r="O21" s="17"/>
+      <c r="P21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>900</v>
+      </c>
+      <c r="R21" s="16">
+        <v>1000</v>
+      </c>
+      <c r="S21" s="16">
+        <v>1100</v>
+      </c>
+      <c r="T21" s="16">
+        <v>1200</v>
+      </c>
+      <c r="U21" s="16">
+        <v>1300</v>
+      </c>
+      <c r="V21" s="17">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="16">
+        <v>700</v>
+      </c>
+      <c r="C22" s="16">
+        <v>800</v>
+      </c>
+      <c r="D22" s="16">
+        <v>900</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1200</v>
+      </c>
+      <c r="O22" s="17"/>
+      <c r="P22" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>900</v>
+      </c>
+      <c r="R22" s="16">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="16">
+        <v>1100</v>
+      </c>
+      <c r="T22" s="16">
+        <v>1200</v>
+      </c>
+      <c r="U22" s="16">
+        <v>1300</v>
+      </c>
+      <c r="V22" s="17">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="16">
+        <v>500</v>
+      </c>
+      <c r="C23" s="16">
+        <v>600</v>
+      </c>
+      <c r="D23" s="16">
+        <v>700</v>
+      </c>
+      <c r="E23" s="16">
+        <v>800</v>
+      </c>
+      <c r="F23" s="16">
+        <v>900</v>
+      </c>
+      <c r="G23" s="17">
+        <v>1000</v>
+      </c>
+      <c r="O23" s="17"/>
+      <c r="P23" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>700</v>
+      </c>
+      <c r="R23" s="16">
+        <v>800</v>
+      </c>
+      <c r="S23" s="16">
+        <v>900</v>
+      </c>
+      <c r="T23" s="16">
+        <v>1000</v>
+      </c>
+      <c r="U23" s="16">
+        <v>1100</v>
+      </c>
+      <c r="V23" s="17">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="16">
+        <v>225</v>
+      </c>
+      <c r="C24" s="16">
+        <v>275</v>
+      </c>
+      <c r="D24" s="16">
+        <v>325</v>
+      </c>
+      <c r="E24" s="16">
+        <v>375</v>
+      </c>
+      <c r="F24" s="16">
+        <v>425</v>
+      </c>
+      <c r="G24" s="17">
+        <v>500</v>
+      </c>
+      <c r="O24" s="17"/>
+      <c r="P24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>325</v>
+      </c>
+      <c r="R24" s="16">
+        <v>375</v>
+      </c>
+      <c r="S24" s="16">
+        <v>425</v>
+      </c>
+      <c r="T24" s="16">
+        <v>475</v>
+      </c>
+      <c r="U24" s="16">
+        <v>525</v>
+      </c>
+      <c r="V24" s="17">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="V25" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="P19:V19"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H11:O11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914DB4C7-4A3D-40DD-9852-59110EC01912}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ARCHERY SHEETS/RecordsOfficer.xlsx
+++ b/ARCHERY SHEETS/RecordsOfficer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB882F9-D701-4DA9-A926-C941EF8F12C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F276C7-5547-4579-80DF-5C83ABE1AF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{8890BA39-058F-4FBA-BC6F-6FC76E6F24A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{8890BA39-058F-4FBA-BC6F-6FC76E6F24A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Record Cards" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Archers!$B$1:$B$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Record Cards'!$B$1:$B$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Record Cards'!$B$1:$B$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="128">
   <si>
     <t>Card Number</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Tens</t>
   </si>
   <si>
-    <t>Bowmen 3rd Class</t>
-  </si>
-  <si>
     <t>WA 50m (80cm)</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>White</t>
   </si>
   <si>
-    <t>Rose Award</t>
-  </si>
-  <si>
     <t>Purple</t>
   </si>
   <si>
@@ -351,9 +345,6 @@
     <t>WA 18m Barebow</t>
   </si>
   <si>
-    <t>WA Star Award</t>
-  </si>
-  <si>
     <t>Current Classification</t>
   </si>
   <si>
@@ -366,12 +357,6 @@
     <t>Indoor  24/25</t>
   </si>
   <si>
-    <t>DCAS Rose Award</t>
-  </si>
-  <si>
-    <t>DCAS Star Award</t>
-  </si>
-  <si>
     <t>Archer Indoor Handicap</t>
   </si>
   <si>
@@ -384,9 +369,6 @@
     <t>Archer Outdoor Classification</t>
   </si>
   <si>
-    <t>Indoor Bowmen 2nd Class</t>
-  </si>
-  <si>
     <t>Estab.</t>
   </si>
   <si>
@@ -403,6 +385,48 @@
   </si>
   <si>
     <t>Classification Badge Given</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>DCAS Star Award (WA 1440)</t>
+  </si>
+  <si>
+    <t>WA Star Award (WA 1440)</t>
+  </si>
+  <si>
+    <t>English Cross (WA 1440)</t>
+  </si>
+  <si>
+    <t>Rose Award (York/Hereford/Bristols)</t>
+  </si>
+  <si>
+    <t>DCAS Rose Award (York/Hereford/Bristols)</t>
+  </si>
+  <si>
+    <t>Exmouth Archers Day 1 WRS</t>
+  </si>
+  <si>
+    <t>Indoor Bowman 2nd Class</t>
+  </si>
+  <si>
+    <t>N/C</t>
+  </si>
+  <si>
+    <t>WA 1440 (70m)</t>
+  </si>
+  <si>
+    <t>Exmouth Archers Day 2 WRS</t>
+  </si>
+  <si>
+    <t>DCAS Star Red, maybe WA Star Blue and Engish Cross</t>
+  </si>
+  <si>
+    <t>WA Target Award Black, maybe 6 Gold End</t>
   </si>
 </sst>
 </file>
@@ -552,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,20 +668,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -665,38 +701,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8888"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -805,6 +847,41 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8888"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8888"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1222,11 +1299,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691D78A0-81DF-4069-A44A-309292B605EE}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1289,7 +1366,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>9</v>
@@ -1298,28 +1375,28 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R1" s="25" t="s">
         <v>11</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1360,10 +1437,13 @@
         <v>36</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1374,10 +1454,10 @@
         <v>45431</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -1401,10 +1481,13 @@
         <v>37</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1415,10 +1498,10 @@
         <v>45431</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1445,16 +1528,16 @@
         <v>37</v>
       </c>
       <c r="R4" s="26" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1465,7 +1548,7 @@
         <v>45436</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -1486,10 +1569,10 @@
         <v>37</v>
       </c>
       <c r="R5" s="26" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1500,10 +1583,10 @@
         <v>45451</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="3">
         <v>6</v>
@@ -1527,10 +1610,10 @@
         <v>37</v>
       </c>
       <c r="R6" s="26" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1544,7 +1627,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="3">
         <v>7.5</v>
@@ -1568,10 +1651,10 @@
         <v>36</v>
       </c>
       <c r="R7" s="26" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1582,7 +1665,7 @@
         <v>45489</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3">
         <v>4</v>
@@ -1606,7 +1689,7 @@
         <v>27</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1617,10 +1700,10 @@
         <v>45501</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3">
         <v>6</v>
@@ -1644,10 +1727,10 @@
         <v>35</v>
       </c>
       <c r="R9" s="26" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1658,7 +1741,7 @@
         <v>45503</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="3">
         <v>6</v>
@@ -1682,10 +1765,10 @@
         <v>34</v>
       </c>
       <c r="R10" s="26" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1696,7 +1779,7 @@
         <v>45508</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="3">
         <v>6</v>
@@ -1720,10 +1803,10 @@
         <v>34</v>
       </c>
       <c r="R11" s="26" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1734,10 +1817,10 @@
         <v>45515</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3">
         <v>6</v>
@@ -1764,7 +1847,7 @@
         <v>27</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1775,7 +1858,7 @@
         <v>45517</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="3">
         <v>5</v>
@@ -1805,161 +1888,252 @@
         <v>27</v>
       </c>
       <c r="R13" s="26" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P14" s="9"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="29"/>
-    </row>
-    <row r="15" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45521</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>601</v>
+      </c>
+      <c r="I14" s="3">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3">
+        <v>39</v>
+      </c>
+      <c r="K14" s="4">
+        <v>71</v>
+      </c>
+      <c r="O14" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>31</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45522</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1203</v>
+      </c>
+      <c r="I15" s="3">
+        <v>29</v>
+      </c>
+      <c r="J15" s="3">
+        <v>82</v>
+      </c>
+      <c r="K15" s="4">
+        <v>142</v>
+      </c>
+      <c r="O15" s="3">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>31</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P16" s="9"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="29"/>
+    </row>
+    <row r="17" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>1</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="4"/>
-      <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="E17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="4"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B34" xr:uid="{691D78A0-81DF-4069-A44A-309292B605EE}"/>
+  <autoFilter ref="B1:B36" xr:uid="{691D78A0-81DF-4069-A44A-309292B605EE}"/>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="WRS">
+    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="WRS">
       <formula>NOT(ISERROR(SEARCH("WRS",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="12" operator="containsText" text="UKRS">
+    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="UKRS">
       <formula>NOT(ISERROR(SEARCH("UKRS",E2)))</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="21" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="31">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="greaterThanOrEqual">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:N1048576">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1969,7 +2143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1978,20 +2152,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:T12 R13:S13 R14:T1048576">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Master">
+  <conditionalFormatting sqref="R2:T12 R13:S15 R16:T1048576">
+    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="Master">
       <formula>NOT(ISERROR(SEARCH("Master",R2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Bowmen">
-      <formula>NOT(ISERROR(SEARCH("Bowmen",R2)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="Bowman">
+      <formula>NOT(ISERROR(SEARCH("Bowman",R2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Archer">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Archer">
       <formula>NOT(ISERROR(SEARCH("Archer",R2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T14">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="Bowmen">
+      <formula>NOT(ISERROR(SEARCH("Bowmen",T14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="Archer">
+      <formula>NOT(ISERROR(SEARCH("Archer",T14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="Master">
+      <formula>NOT(ISERROR(SEARCH("Master",T14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
       <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T15">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Master">
+      <formula>NOT(ISERROR(SEARCH("Master",T15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Bowman">
+      <formula>NOT(ISERROR(SEARCH("Bowman",T15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Archer">
+      <formula>NOT(ISERROR(SEARCH("Archer",T15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2002,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCB174E-0B50-48CA-87C2-B3105E50D3D9}">
   <dimension ref="A1:AL24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,238 +2218,237 @@
     <col min="26" max="26" width="10.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="13.7109375" style="16" customWidth="1"/>
     <col min="30" max="30" width="13.7109375" style="17" customWidth="1"/>
-    <col min="31" max="32" width="13.7109375" style="45" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" style="16" customWidth="1"/>
+    <col min="31" max="33" width="13.7109375" style="16" customWidth="1"/>
     <col min="34" max="34" width="13.7109375" style="21" customWidth="1"/>
     <col min="35" max="38" width="13.7109375" style="16" customWidth="1"/>
     <col min="39" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ1" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK1" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL1" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+    </row>
+    <row r="3" spans="1:38" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="36" t="s">
+      <c r="K3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI1" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ1" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK1" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL1" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-    </row>
-    <row r="3" spans="1:38" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="AB3" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
+        <v>112</v>
+      </c>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -2264,35 +2461,35 @@
         <v>21</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="H4" s="16">
         <v>27</v>
       </c>
       <c r="I4" s="17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA4" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB4" s="30"/>
       <c r="AC4" s="16">
         <v>27</v>
       </c>
-      <c r="AE4" s="45" t="s">
+      <c r="AE4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="AF4" s="45" t="s">
-        <v>66</v>
       </c>
       <c r="AG4" s="16">
         <v>550</v>
@@ -2301,10 +2498,10 @@
         <v>300</v>
       </c>
       <c r="AK4" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL4" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -2427,11 +2624,19 @@
   </sheetData>
   <autoFilter ref="B1:B24" xr:uid="{5FCB174E-0B50-48CA-87C2-B3105E50D3D9}"/>
   <mergeCells count="26">
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="AK1:AK3"/>
     <mergeCell ref="AJ1:AJ3"/>
     <mergeCell ref="AI1:AI3"/>
     <mergeCell ref="AE1:AF2"/>
-    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="U2:W2"/>
@@ -2445,62 +2650,54 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:G1048576">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="15" priority="24" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="M">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="M">
       <formula>NOT(ISERROR(SEARCH("M",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AF1048576">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AA4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",AA4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="M">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="M">
       <formula>NOT(ISERROR(SEARCH("M",AA4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1 AH4:AH1048576">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AL1048576">
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="100">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="100">
       <formula>NOT(ISERROR(SEARCH("100",AK1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="80">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="80">
       <formula>NOT(ISERROR(SEARCH("80",AK1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="60">
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="60">
       <formula>NOT(ISERROR(SEARCH("60",AK1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="50">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="50">
       <formula>NOT(ISERROR(SEARCH("50",AK1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="40">
+    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="40">
       <formula>NOT(ISERROR(SEARCH("40",AK1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="30">
+    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="30">
       <formula>NOT(ISERROR(SEARCH("30",AK1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="20">
+    <cfRule type="containsText" dxfId="3" priority="16" operator="containsText" text="20">
       <formula>NOT(ISERROR(SEARCH("20",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2510,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336A1A1B-2BAB-48B4-8EDB-3C6EABCD9C29}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,40 +2719,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="33"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="37"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
@@ -2577,52 +2774,52 @@
         <v>300</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="R2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="V2" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2645,7 +2842,7 @@
         <v>315</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="16">
         <v>314</v>
@@ -2660,7 +2857,7 @@
         <v>210</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3" s="16">
         <v>60</v>
@@ -2713,7 +2910,7 @@
         <v>330</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="16">
         <v>306</v>
@@ -2728,7 +2925,7 @@
         <v>196</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M4" s="16">
         <v>50</v>
@@ -2781,7 +2978,7 @@
         <v>340</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="16">
         <v>294</v>
@@ -2796,7 +2993,7 @@
         <v>176</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M5" s="16">
         <v>40</v>
@@ -2849,7 +3046,7 @@
         <v>350</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" s="16">
         <v>280</v>
@@ -2864,7 +3061,7 @@
         <v>160</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M6" s="16">
         <v>30</v>
@@ -2917,7 +3114,7 @@
         <v>355</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="16">
         <v>266</v>
@@ -2932,7 +3129,7 @@
         <v>138</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M7" s="16">
         <v>20</v>
@@ -3028,17 +3225,17 @@
       <c r="V10" s="20"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
-        <v>94</v>
+      <c r="A11" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="41" t="s">
-        <v>96</v>
+      <c r="G11" s="38"/>
+      <c r="H11" s="43" t="s">
+        <v>94</v>
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
@@ -3046,109 +3243,109 @@
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="41" t="s">
-        <v>102</v>
+      <c r="O11" s="38"/>
+      <c r="P11" s="42" t="s">
+        <v>119</v>
       </c>
       <c r="Q11" s="42"/>
       <c r="R11" s="42"/>
       <c r="S11" s="42"/>
       <c r="T11" s="42"/>
       <c r="U11" s="42"/>
-      <c r="V11" s="39"/>
+      <c r="V11" s="38"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="H12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="K12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="L12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="M12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="15" t="s">
+      <c r="N12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="P12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="R12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="S12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="T12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="O12" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" s="15" t="s">
+      <c r="U12" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="V12" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="T12" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="U12" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="16">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C13" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="D13" s="16">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E13" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F13" s="16">
-        <v>1200</v>
+        <v>1350</v>
       </c>
       <c r="G13" s="17">
-        <v>1250</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="44"/>
+        <v>1400</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="45"/>
       <c r="J13" s="16">
         <v>500</v>
       </c>
@@ -3168,53 +3365,53 @@
         <v>700</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="16">
+        <v>800</v>
+      </c>
+      <c r="R13" s="16">
+        <v>900</v>
+      </c>
+      <c r="S13" s="16">
         <v>1000</v>
       </c>
-      <c r="R13" s="16">
+      <c r="T13" s="16">
         <v>1100</v>
       </c>
-      <c r="S13" s="16">
+      <c r="U13" s="16">
         <v>1200</v>
       </c>
-      <c r="T13" s="16">
-        <v>1300</v>
-      </c>
-      <c r="U13" s="16">
-        <v>1350</v>
-      </c>
       <c r="V13" s="17">
-        <v>1400</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="16">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C14" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="D14" s="16">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F14" s="16">
-        <v>1200</v>
+        <v>1350</v>
       </c>
       <c r="G14" s="17">
-        <v>1250</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="44"/>
+        <v>1400</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="45"/>
       <c r="J14" s="16">
         <v>500</v>
       </c>
@@ -3234,53 +3431,33 @@
         <v>700</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="16">
+        <v>800</v>
+      </c>
+      <c r="R14" s="16">
+        <v>900</v>
+      </c>
+      <c r="S14" s="16">
         <v>1000</v>
       </c>
-      <c r="R14" s="16">
+      <c r="T14" s="16">
         <v>1100</v>
       </c>
-      <c r="S14" s="16">
+      <c r="U14" s="16">
         <v>1200</v>
       </c>
-      <c r="T14" s="16">
-        <v>1300</v>
-      </c>
-      <c r="U14" s="16">
-        <v>1350</v>
-      </c>
       <c r="V14" s="17">
-        <v>1400</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="16">
-        <v>500</v>
-      </c>
-      <c r="C15" s="16">
-        <v>600</v>
-      </c>
-      <c r="D15" s="16">
-        <v>700</v>
-      </c>
-      <c r="E15" s="16">
-        <v>800</v>
-      </c>
-      <c r="F15" s="16">
-        <v>900</v>
-      </c>
-      <c r="G15" s="17">
-        <v>1000</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="44"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="45"/>
       <c r="J15" s="16">
         <v>480</v>
       </c>
@@ -3299,34 +3476,34 @@
       <c r="O15" s="17">
         <v>640</v>
       </c>
-      <c r="V15" s="17"/>
+      <c r="P15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>500</v>
+      </c>
+      <c r="R15" s="16">
+        <v>600</v>
+      </c>
+      <c r="S15" s="16">
+        <v>700</v>
+      </c>
+      <c r="T15" s="16">
+        <v>800</v>
+      </c>
+      <c r="U15" s="16">
+        <v>900</v>
+      </c>
+      <c r="V15" s="17">
+        <v>1000</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="16">
-        <v>225</v>
-      </c>
-      <c r="C16" s="16">
-        <v>300</v>
-      </c>
-      <c r="D16" s="16">
-        <v>375</v>
-      </c>
-      <c r="E16" s="16">
-        <v>450</v>
-      </c>
-      <c r="F16" s="16">
-        <v>525</v>
-      </c>
-      <c r="G16" s="17">
-        <v>600</v>
-      </c>
-      <c r="H16" s="43" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="44"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="16">
         <v>750</v>
       </c>
@@ -3345,13 +3522,34 @@
       <c r="O16" s="17">
         <v>890</v>
       </c>
-      <c r="V16" s="17"/>
+      <c r="P16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>225</v>
+      </c>
+      <c r="R16" s="16">
+        <v>300</v>
+      </c>
+      <c r="S16" s="16">
+        <v>375</v>
+      </c>
+      <c r="T16" s="16">
+        <v>450</v>
+      </c>
+      <c r="U16" s="16">
+        <v>525</v>
+      </c>
+      <c r="V16" s="17">
+        <v>600</v>
+      </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H17" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="44"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="45"/>
       <c r="J17" s="16">
         <v>500</v>
       </c>
@@ -3372,12 +3570,12 @@
       </c>
       <c r="V17" s="17"/>
     </row>
-    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G18" s="17"/>
-      <c r="H18" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="44"/>
+      <c r="H18" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="45"/>
       <c r="J18" s="16">
         <v>480</v>
       </c>
@@ -3398,186 +3596,225 @@
       </c>
       <c r="V18" s="17"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="39"/>
-      <c r="P19" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="39"/>
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="20"/>
+      <c r="O19" s="17"/>
+      <c r="V19" s="20"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="38"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="G21" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="H21" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="K21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="L21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="M21" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="O20" s="17"/>
-      <c r="P20" s="15" t="s">
+      <c r="N21" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="Q20" s="15" t="s">
+      <c r="O21" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="R20" s="15" t="s">
+      <c r="P21" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="S20" s="15" t="s">
+      <c r="R21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="T20" s="15" t="s">
+      <c r="S21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="U20" s="15" t="s">
+      <c r="T21" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="V20" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="16">
-        <v>700</v>
-      </c>
-      <c r="C21" s="16">
-        <v>800</v>
-      </c>
-      <c r="D21" s="16">
-        <v>900</v>
-      </c>
-      <c r="E21" s="16">
-        <v>1000</v>
-      </c>
-      <c r="F21" s="16">
-        <v>1100</v>
-      </c>
-      <c r="G21" s="17">
-        <v>1200</v>
-      </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>900</v>
-      </c>
-      <c r="R21" s="16">
-        <v>1000</v>
-      </c>
-      <c r="S21" s="16">
-        <v>1100</v>
-      </c>
-      <c r="T21" s="16">
-        <v>1200</v>
-      </c>
-      <c r="U21" s="16">
-        <v>1300</v>
-      </c>
-      <c r="V21" s="17">
-        <v>1350</v>
+      <c r="U21" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" s="16">
+        <v>900</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1300</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1350</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="16">
+        <v>950</v>
+      </c>
+      <c r="K22" s="16">
+        <v>1050</v>
+      </c>
+      <c r="L22" s="16">
+        <v>1150</v>
+      </c>
+      <c r="M22" s="16">
+        <v>1250</v>
+      </c>
+      <c r="N22" s="16">
+        <v>1350</v>
+      </c>
+      <c r="O22" s="17">
+        <v>1400</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="16">
         <v>700</v>
       </c>
-      <c r="C22" s="16">
+      <c r="R22" s="16">
         <v>800</v>
       </c>
-      <c r="D22" s="16">
+      <c r="S22" s="16">
         <v>900</v>
       </c>
-      <c r="E22" s="16">
+      <c r="T22" s="16">
         <v>1000</v>
       </c>
-      <c r="F22" s="16">
+      <c r="U22" s="16">
         <v>1100</v>
       </c>
-      <c r="G22" s="17">
+      <c r="V22" s="17">
         <v>1200</v>
-      </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q22" s="16">
-        <v>900</v>
-      </c>
-      <c r="R22" s="16">
-        <v>1000</v>
-      </c>
-      <c r="S22" s="16">
-        <v>1100</v>
-      </c>
-      <c r="T22" s="16">
-        <v>1200</v>
-      </c>
-      <c r="U22" s="16">
-        <v>1300</v>
-      </c>
-      <c r="V22" s="17">
-        <v>1350</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="C23" s="16">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="D23" s="16">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E23" s="16">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="F23" s="16">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="G23" s="17">
-        <v>1000</v>
-      </c>
-      <c r="O23" s="17"/>
+        <v>1350</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="16">
+        <v>850</v>
+      </c>
+      <c r="J23" s="16">
+        <v>950</v>
+      </c>
+      <c r="K23" s="16">
+        <v>1050</v>
+      </c>
+      <c r="L23" s="16">
+        <v>1150</v>
+      </c>
+      <c r="M23" s="16">
+        <v>1225</v>
+      </c>
+      <c r="N23" s="16">
+        <v>1275</v>
+      </c>
+      <c r="O23" s="17">
+        <v>1325</v>
+      </c>
       <c r="P23" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q23" s="16">
         <v>700</v>
@@ -3600,56 +3837,182 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" s="16">
+        <v>700</v>
+      </c>
+      <c r="C24" s="16">
+        <v>800</v>
+      </c>
+      <c r="D24" s="16">
+        <v>900</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1100</v>
+      </c>
+      <c r="G24" s="17">
+        <v>1200</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="16">
+        <v>450</v>
+      </c>
+      <c r="J24" s="16">
+        <v>550</v>
+      </c>
+      <c r="K24" s="16">
+        <v>650</v>
+      </c>
+      <c r="L24" s="16">
+        <v>750</v>
+      </c>
+      <c r="M24" s="16">
+        <v>850</v>
+      </c>
+      <c r="N24" s="16">
+        <v>950</v>
+      </c>
+      <c r="O24" s="17">
+        <v>1025</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>500</v>
+      </c>
+      <c r="R24" s="16">
+        <v>600</v>
+      </c>
+      <c r="S24" s="16">
+        <v>700</v>
+      </c>
+      <c r="T24" s="16">
+        <v>800</v>
+      </c>
+      <c r="U24" s="16">
+        <v>900</v>
+      </c>
+      <c r="V24" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="16">
+        <v>325</v>
+      </c>
+      <c r="C25" s="16">
+        <v>375</v>
+      </c>
+      <c r="D25" s="16">
+        <v>425</v>
+      </c>
+      <c r="E25" s="16">
+        <v>475</v>
+      </c>
+      <c r="F25" s="16">
+        <v>525</v>
+      </c>
+      <c r="G25" s="17">
+        <v>600</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="16">
+        <v>250</v>
+      </c>
+      <c r="J25" s="16">
+        <v>350</v>
+      </c>
+      <c r="K25" s="16">
+        <v>450</v>
+      </c>
+      <c r="L25" s="16">
+        <v>525</v>
+      </c>
+      <c r="M25" s="16">
+        <v>600</v>
+      </c>
+      <c r="N25" s="16">
+        <v>650</v>
+      </c>
+      <c r="O25" s="17">
+        <v>700</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" s="16">
         <v>225</v>
       </c>
-      <c r="C24" s="16">
+      <c r="R25" s="16">
         <v>275</v>
       </c>
-      <c r="D24" s="16">
+      <c r="S25" s="16">
         <v>325</v>
       </c>
-      <c r="E24" s="16">
+      <c r="T25" s="16">
         <v>375</v>
       </c>
-      <c r="F24" s="16">
+      <c r="U25" s="16">
         <v>425</v>
       </c>
-      <c r="G24" s="17">
+      <c r="V25" s="17">
         <v>500</v>
       </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q24" s="16">
-        <v>325</v>
-      </c>
-      <c r="R24" s="16">
-        <v>375</v>
-      </c>
-      <c r="S24" s="16">
-        <v>425</v>
-      </c>
-      <c r="T24" s="16">
-        <v>475</v>
-      </c>
-      <c r="U24" s="16">
-        <v>525</v>
-      </c>
-      <c r="V24" s="17">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="V25" s="17"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G26" s="17"/>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="36" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+    </row>
+    <row r="37" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+    </row>
+    <row r="43" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -3657,8 +4020,9 @@
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="P11:V11"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="P19:V19"/>
+    <mergeCell ref="P20:V20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="A20:G20"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H12:I12"/>
